--- a/data/pca/factorExposure/factorExposure_2017-05-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02267015164627132</v>
+        <v>0.009370698490751238</v>
       </c>
       <c r="C2">
-        <v>0.008083390452826562</v>
+        <v>-0.04272147384455707</v>
       </c>
       <c r="D2">
-        <v>-0.02886638611576669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02967432027082518</v>
+      </c>
+      <c r="E2">
+        <v>-0.0321747764568677</v>
+      </c>
+      <c r="F2">
+        <v>-0.01059145170465491</v>
+      </c>
+      <c r="G2">
+        <v>-0.09849430696514136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01908107583877319</v>
+        <v>0.04276635218011569</v>
       </c>
       <c r="C3">
-        <v>-0.01922834465090994</v>
+        <v>-0.1026971236127143</v>
       </c>
       <c r="D3">
-        <v>-0.1051834798105675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01836514947752564</v>
+      </c>
+      <c r="E3">
+        <v>-0.1027603214201245</v>
+      </c>
+      <c r="F3">
+        <v>-0.003857105597053202</v>
+      </c>
+      <c r="G3">
+        <v>-0.1921104296953133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02502639194424167</v>
+        <v>0.05515093823276974</v>
       </c>
       <c r="C4">
-        <v>-0.00123979020632116</v>
+        <v>-0.06781872227453194</v>
       </c>
       <c r="D4">
-        <v>-0.08430500132188443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02441407231506706</v>
+      </c>
+      <c r="E4">
+        <v>-0.02762248407643331</v>
+      </c>
+      <c r="F4">
+        <v>-0.01015853051989235</v>
+      </c>
+      <c r="G4">
+        <v>-0.099796721676917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01279261079651491</v>
+        <v>0.03659998521274775</v>
       </c>
       <c r="C6">
-        <v>0.01070625785356222</v>
+        <v>-0.05249076807589777</v>
       </c>
       <c r="D6">
-        <v>-0.08014804406433106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01680694858633611</v>
+      </c>
+      <c r="E6">
+        <v>-0.03227363185925042</v>
+      </c>
+      <c r="F6">
+        <v>-0.008295235021438101</v>
+      </c>
+      <c r="G6">
+        <v>-0.08228716022253102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01142111589090367</v>
+        <v>0.02078882753655651</v>
       </c>
       <c r="C7">
-        <v>0.00177674923711939</v>
+        <v>-0.03931004377086543</v>
       </c>
       <c r="D7">
-        <v>-0.03568196289870879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01363643189223381</v>
+      </c>
+      <c r="E7">
+        <v>-0.0005247698253908849</v>
+      </c>
+      <c r="F7">
+        <v>0.003909272333317373</v>
+      </c>
+      <c r="G7">
+        <v>-0.1183233655215282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002649406472068308</v>
+        <v>0.003438633917402319</v>
       </c>
       <c r="C8">
-        <v>0.001691762020015764</v>
+        <v>-0.02461848609036233</v>
       </c>
       <c r="D8">
-        <v>-0.003112869767979838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003925418605433864</v>
+      </c>
+      <c r="E8">
+        <v>-0.02458357944955048</v>
+      </c>
+      <c r="F8">
+        <v>-0.007121063820748167</v>
+      </c>
+      <c r="G8">
+        <v>-0.07088774378756305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01703160832638011</v>
+        <v>0.03315490190918121</v>
       </c>
       <c r="C9">
-        <v>-0.003351895550422311</v>
+        <v>-0.04865296036767045</v>
       </c>
       <c r="D9">
-        <v>-0.060803942238121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01647635933118822</v>
+      </c>
+      <c r="E9">
+        <v>-0.01727146688859395</v>
+      </c>
+      <c r="F9">
+        <v>-0.007241451227795275</v>
+      </c>
+      <c r="G9">
+        <v>-0.09936254111206029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05830880794095943</v>
+        <v>0.09873276759052832</v>
       </c>
       <c r="C10">
-        <v>-0.1787023345945728</v>
+        <v>0.1819457757092684</v>
       </c>
       <c r="D10">
-        <v>0.09250333615722911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01507935679602364</v>
+      </c>
+      <c r="E10">
+        <v>-0.02187684722426673</v>
+      </c>
+      <c r="F10">
+        <v>0.02198686046542342</v>
+      </c>
+      <c r="G10">
+        <v>-0.05877963718007511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.000728406718084921</v>
+        <v>0.03491360766021583</v>
       </c>
       <c r="C11">
-        <v>0.005456567858686215</v>
+        <v>-0.05423039865899128</v>
       </c>
       <c r="D11">
-        <v>-0.05563068351246794</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002214041352244857</v>
+      </c>
+      <c r="E11">
+        <v>-0.01046406403896014</v>
+      </c>
+      <c r="F11">
+        <v>-0.02108770729195947</v>
+      </c>
+      <c r="G11">
+        <v>-0.09214327789605282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004788440834152233</v>
+        <v>0.03666985428619791</v>
       </c>
       <c r="C12">
-        <v>0.003577774594643945</v>
+        <v>-0.04889791110566431</v>
       </c>
       <c r="D12">
-        <v>-0.04977414263859523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.00627004238360016</v>
+      </c>
+      <c r="E12">
+        <v>-0.004187127702622141</v>
+      </c>
+      <c r="F12">
+        <v>-0.001795159050579293</v>
+      </c>
+      <c r="G12">
+        <v>-0.08351560485812148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02402414392277012</v>
+        <v>0.01612996897162799</v>
       </c>
       <c r="C13">
-        <v>-0.00273426954763613</v>
+        <v>-0.04143337738873361</v>
       </c>
       <c r="D13">
-        <v>-0.03710558067584706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02616798652101168</v>
+      </c>
+      <c r="E13">
+        <v>-0.0298754224378778</v>
+      </c>
+      <c r="F13">
+        <v>-0.005721848376743881</v>
+      </c>
+      <c r="G13">
+        <v>-0.1329453796904086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009832537747659525</v>
+        <v>0.008857220792876029</v>
       </c>
       <c r="C14">
-        <v>-0.006545058054495377</v>
+        <v>-0.0286723591798818</v>
       </c>
       <c r="D14">
-        <v>-0.01703333318307255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.009884824097591526</v>
+      </c>
+      <c r="E14">
+        <v>-0.004132654796703175</v>
+      </c>
+      <c r="F14">
+        <v>0.008861724193447199</v>
+      </c>
+      <c r="G14">
+        <v>-0.1020863799725029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.002189776103018765</v>
+        <v>0.03342767795454989</v>
       </c>
       <c r="C16">
-        <v>-0.003749688873356778</v>
+        <v>-0.04723343145681112</v>
       </c>
       <c r="D16">
-        <v>-0.04504406891436626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001784938956777039</v>
+      </c>
+      <c r="E16">
+        <v>-0.01006123595161787</v>
+      </c>
+      <c r="F16">
+        <v>-0.003081190564648884</v>
+      </c>
+      <c r="G16">
+        <v>-0.09330428215185047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01344050189883517</v>
+        <v>0.02165821358281229</v>
       </c>
       <c r="C19">
-        <v>0.00161791328052711</v>
+        <v>-0.05416898396929884</v>
       </c>
       <c r="D19">
-        <v>-0.04825524960709695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01885298807628112</v>
+      </c>
+      <c r="E19">
+        <v>-0.07074671247778914</v>
+      </c>
+      <c r="F19">
+        <v>-0.02095132135265048</v>
+      </c>
+      <c r="G19">
+        <v>-0.1355652228390881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01052199708030948</v>
+        <v>0.01534809093631103</v>
       </c>
       <c r="C20">
-        <v>0.00260355164097262</v>
+        <v>-0.0400296403496571</v>
       </c>
       <c r="D20">
-        <v>-0.03557127201584032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01407867917150277</v>
+      </c>
+      <c r="E20">
+        <v>-0.03066474841842892</v>
+      </c>
+      <c r="F20">
+        <v>0.01246934445764085</v>
+      </c>
+      <c r="G20">
+        <v>-0.1113778814850736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01579430674713207</v>
+        <v>0.01273287337236705</v>
       </c>
       <c r="C21">
-        <v>-0.004549546206133409</v>
+        <v>-0.03968727348887285</v>
       </c>
       <c r="D21">
-        <v>-0.03609768737024151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01878288988408347</v>
+      </c>
+      <c r="E21">
+        <v>-0.0441663818803727</v>
+      </c>
+      <c r="F21">
+        <v>-0.001896613393251006</v>
+      </c>
+      <c r="G21">
+        <v>-0.132826749945316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001070971614773159</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002720921631909601</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0004395085034481092</v>
+      </c>
+      <c r="E22">
+        <v>-0.001861965274776619</v>
+      </c>
+      <c r="F22">
+        <v>-0.001135441289644171</v>
+      </c>
+      <c r="G22">
+        <v>-0.003230110309025543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001075324344924253</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002717028850364106</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0004396252050000849</v>
+      </c>
+      <c r="E23">
+        <v>-0.001867646052524409</v>
+      </c>
+      <c r="F23">
+        <v>-0.00113383316668992</v>
+      </c>
+      <c r="G23">
+        <v>-0.003244259201060971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.002310301851038863</v>
+        <v>0.02900720680785267</v>
       </c>
       <c r="C24">
-        <v>0.009618051708424169</v>
+        <v>-0.05163926516016274</v>
       </c>
       <c r="D24">
-        <v>-0.04966118163621298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007010613136319926</v>
+      </c>
+      <c r="E24">
+        <v>-0.006349428847958944</v>
+      </c>
+      <c r="F24">
+        <v>-0.01293612466755611</v>
+      </c>
+      <c r="G24">
+        <v>-0.09213668425014429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01289989717718998</v>
+        <v>0.04324035588771444</v>
       </c>
       <c r="C25">
-        <v>-0.003847433192163489</v>
+        <v>-0.05884348439962803</v>
       </c>
       <c r="D25">
-        <v>-0.05941830171317705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0110377378220757</v>
+      </c>
+      <c r="E25">
+        <v>0.001066786259580747</v>
+      </c>
+      <c r="F25">
+        <v>-0.006036854913949244</v>
+      </c>
+      <c r="G25">
+        <v>-0.1020534883680832</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02292786055592719</v>
+        <v>0.01435003233545121</v>
       </c>
       <c r="C26">
-        <v>0.001612527620605934</v>
+        <v>-0.01124142126612388</v>
       </c>
       <c r="D26">
-        <v>-0.001510468800727605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02399301393468368</v>
+      </c>
+      <c r="E26">
+        <v>-0.008194727868628106</v>
+      </c>
+      <c r="F26">
+        <v>0.009391089458338104</v>
+      </c>
+      <c r="G26">
+        <v>-0.08242641506233039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09136104500012754</v>
+        <v>0.1259467067576568</v>
       </c>
       <c r="C28">
-        <v>-0.2340633922384391</v>
+        <v>0.2384145680616139</v>
       </c>
       <c r="D28">
-        <v>0.1142864937722401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.005977905874693733</v>
+      </c>
+      <c r="E28">
+        <v>-0.008710824735231734</v>
+      </c>
+      <c r="F28">
+        <v>0.01635755814268403</v>
+      </c>
+      <c r="G28">
+        <v>-0.04674087168402276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01113762498799123</v>
+        <v>0.009371726771947655</v>
       </c>
       <c r="C29">
-        <v>-0.0109610797395293</v>
+        <v>-0.02242681861853894</v>
       </c>
       <c r="D29">
-        <v>-0.01809595250752487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.008959804668246238</v>
+      </c>
+      <c r="E29">
+        <v>-0.001892106978440621</v>
+      </c>
+      <c r="F29">
+        <v>0.01675298184138905</v>
+      </c>
+      <c r="G29">
+        <v>-0.09639246799059506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02004973066136236</v>
+        <v>0.04107858211202428</v>
       </c>
       <c r="C30">
-        <v>0.01864395005549479</v>
+        <v>-0.07111032166510049</v>
       </c>
       <c r="D30">
-        <v>-0.1033370754864371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0286634406521031</v>
+      </c>
+      <c r="E30">
+        <v>-0.05106268588681757</v>
+      </c>
+      <c r="F30">
+        <v>-0.04340053829846031</v>
+      </c>
+      <c r="G30">
+        <v>-0.1264229103367436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0148915231691004</v>
+        <v>0.05340050875393901</v>
       </c>
       <c r="C31">
-        <v>-0.02654200585045717</v>
+        <v>-0.03771773919700348</v>
       </c>
       <c r="D31">
-        <v>-0.03807712875625862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003668691857014972</v>
+      </c>
+      <c r="E31">
+        <v>0.001423704395054302</v>
+      </c>
+      <c r="F31">
+        <v>0.04118845372406021</v>
+      </c>
+      <c r="G31">
+        <v>-0.1003991435634111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001539236820233251</v>
+        <v>0.002211419256362168</v>
       </c>
       <c r="C32">
-        <v>-0.02020202386040498</v>
+        <v>-0.02389156218512397</v>
       </c>
       <c r="D32">
-        <v>-0.005302664982569155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.003551718951693107</v>
+      </c>
+      <c r="E32">
+        <v>-0.0227830192475454</v>
+      </c>
+      <c r="F32">
+        <v>-0.03873925380882369</v>
+      </c>
+      <c r="G32">
+        <v>-0.07776343494791116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01293031094806412</v>
+        <v>0.02786662456430028</v>
       </c>
       <c r="C33">
-        <v>-0.001992026436207527</v>
+        <v>-0.0509753105352071</v>
       </c>
       <c r="D33">
-        <v>-0.04481798020772944</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01553206400152225</v>
+      </c>
+      <c r="E33">
+        <v>-0.03540818694362862</v>
+      </c>
+      <c r="F33">
+        <v>-0.0158472435253885</v>
+      </c>
+      <c r="G33">
+        <v>-0.1622341335280435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.001947175067208035</v>
+        <v>0.04055816563702727</v>
       </c>
       <c r="C34">
-        <v>-0.01024706636495763</v>
+        <v>-0.06068724035887034</v>
       </c>
       <c r="D34">
-        <v>-0.0563213463730288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.00481422226608307</v>
+      </c>
+      <c r="E34">
+        <v>-0.0006343717421586464</v>
+      </c>
+      <c r="F34">
+        <v>-0.0199868360882951</v>
+      </c>
+      <c r="G34">
+        <v>-0.09632419630180417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01515191952661058</v>
+        <v>0.01641933056405456</v>
       </c>
       <c r="C36">
-        <v>-0.01090692727198126</v>
+        <v>-0.009354681126951111</v>
       </c>
       <c r="D36">
-        <v>-0.006637529589917118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01234412219964005</v>
+      </c>
+      <c r="E36">
+        <v>-0.005662284506913046</v>
+      </c>
+      <c r="F36">
+        <v>0.006988584492098546</v>
+      </c>
+      <c r="G36">
+        <v>-0.09138064884789578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001934963473090914</v>
+        <v>0.03201382405434743</v>
       </c>
       <c r="C38">
-        <v>-0.02586552578229424</v>
+        <v>-0.03126078844183116</v>
       </c>
       <c r="D38">
-        <v>-0.04982432790598664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007629249965716714</v>
+      </c>
+      <c r="E38">
+        <v>-0.003248779926345075</v>
+      </c>
+      <c r="F38">
+        <v>0.02034420540964244</v>
+      </c>
+      <c r="G38">
+        <v>-0.08594637547143703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.001055894645423823</v>
+        <v>0.03711502773782038</v>
       </c>
       <c r="C39">
-        <v>0.03090556492107139</v>
+        <v>-0.08084795038196779</v>
       </c>
       <c r="D39">
-        <v>-0.1017143082938328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01138363111692612</v>
+      </c>
+      <c r="E39">
+        <v>-0.02275197572180795</v>
+      </c>
+      <c r="F39">
+        <v>-0.0231230308051017</v>
+      </c>
+      <c r="G39">
+        <v>-0.0893989254469348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01296469933305616</v>
+        <v>0.01353239470876641</v>
       </c>
       <c r="C40">
-        <v>-0.003982424402805653</v>
+        <v>-0.04038307763762097</v>
       </c>
       <c r="D40">
-        <v>-0.04012237971738256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01476922608403651</v>
+      </c>
+      <c r="E40">
+        <v>-0.02106971711005257</v>
+      </c>
+      <c r="F40">
+        <v>0.003758847273803989</v>
+      </c>
+      <c r="G40">
+        <v>-0.1254060519711864</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01053734375226568</v>
+        <v>0.02098735597112429</v>
       </c>
       <c r="C41">
-        <v>-0.02054831005609192</v>
+        <v>-0.002186856710704775</v>
       </c>
       <c r="D41">
-        <v>0.01087298490411579</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004146188191453289</v>
+      </c>
+      <c r="E41">
+        <v>-0.003379520328920264</v>
+      </c>
+      <c r="F41">
+        <v>0.01562443084955829</v>
+      </c>
+      <c r="G41">
+        <v>-0.08214116547386839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08296434024925672</v>
+        <v>0.009827618326675249</v>
       </c>
       <c r="C42">
-        <v>0.04831264695952885</v>
+        <v>-0.03340286264204262</v>
       </c>
       <c r="D42">
-        <v>-0.1635508733537782</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0896249416999039</v>
+      </c>
+      <c r="E42">
+        <v>-0.006237586989960834</v>
+      </c>
+      <c r="F42">
+        <v>0.04050616972613486</v>
+      </c>
+      <c r="G42">
+        <v>0.03302115870647685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01091229451500721</v>
+        <v>0.03482591846695908</v>
       </c>
       <c r="C43">
-        <v>-0.01918840628990852</v>
+        <v>-0.01814414183003224</v>
       </c>
       <c r="D43">
-        <v>0.005872428406101659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.00586479143484546</v>
+      </c>
+      <c r="E43">
+        <v>-0.01726753624902531</v>
+      </c>
+      <c r="F43">
+        <v>0.004671763347158835</v>
+      </c>
+      <c r="G43">
+        <v>-0.1211535490396186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.001527972084079511</v>
+        <v>0.01269964776263918</v>
       </c>
       <c r="C44">
-        <v>0.005913645760610236</v>
+        <v>-0.05881001975887461</v>
       </c>
       <c r="D44">
-        <v>-0.0535590676046009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006829660983131673</v>
+      </c>
+      <c r="E44">
+        <v>-0.01946163568949526</v>
+      </c>
+      <c r="F44">
+        <v>0.005376236352932756</v>
+      </c>
+      <c r="G44">
+        <v>-0.106848796165068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01173326318114909</v>
+        <v>0.007843767126860959</v>
       </c>
       <c r="C46">
-        <v>-0.003995476196077212</v>
+        <v>-0.01727677726656738</v>
       </c>
       <c r="D46">
-        <v>-0.004145252315283178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01255900879774605</v>
+      </c>
+      <c r="E46">
+        <v>-0.001277047199858675</v>
+      </c>
+      <c r="F46">
+        <v>0.01639571284177692</v>
+      </c>
+      <c r="G46">
+        <v>-0.1025938985834041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.01048977038646467</v>
+        <v>0.07752628373802775</v>
       </c>
       <c r="C47">
-        <v>-0.03341916614309118</v>
+        <v>-0.06749805332423177</v>
       </c>
       <c r="D47">
-        <v>-0.07533853096469338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005130168540335855</v>
+      </c>
+      <c r="E47">
+        <v>0.007215919970870777</v>
+      </c>
+      <c r="F47">
+        <v>0.0560042988084552</v>
+      </c>
+      <c r="G47">
+        <v>-0.08872882686886581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.006044000784254656</v>
+        <v>0.01962480891898496</v>
       </c>
       <c r="C48">
-        <v>-0.01312744227857769</v>
+        <v>-0.01291925352024324</v>
       </c>
       <c r="D48">
-        <v>-0.02010434973770081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.001939483981939395</v>
+      </c>
+      <c r="E48">
+        <v>-0.002821867887037424</v>
+      </c>
+      <c r="F48">
+        <v>0.02082256103189804</v>
+      </c>
+      <c r="G48">
+        <v>-0.09579098144265369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0137959774178851</v>
+        <v>0.07545829998136494</v>
       </c>
       <c r="C50">
-        <v>-0.0371151800496836</v>
+        <v>-0.07172204726466806</v>
       </c>
       <c r="D50">
-        <v>-0.07142235378217153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002379364746467768</v>
+      </c>
+      <c r="E50">
+        <v>0.004421068957781186</v>
+      </c>
+      <c r="F50">
+        <v>0.05684213028157963</v>
+      </c>
+      <c r="G50">
+        <v>-0.09358293701522603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008214330459694996</v>
+        <v>0.01457624127189997</v>
       </c>
       <c r="C51">
-        <v>-0.005348314630490927</v>
+        <v>-0.03620901369431258</v>
       </c>
       <c r="D51">
-        <v>-0.02048471894134558</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0104995653465966</v>
+      </c>
+      <c r="E51">
+        <v>-0.02062604780012839</v>
+      </c>
+      <c r="F51">
+        <v>-0.02466018855565436</v>
+      </c>
+      <c r="G51">
+        <v>-0.1255884251984383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01337394564417655</v>
+        <v>0.08191462553611344</v>
       </c>
       <c r="C53">
-        <v>-0.03244535799381797</v>
+        <v>-0.08569083425698194</v>
       </c>
       <c r="D53">
-        <v>-0.133428934214466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003452851283522001</v>
+      </c>
+      <c r="E53">
+        <v>0.02476672079625113</v>
+      </c>
+      <c r="F53">
+        <v>0.06503672236548848</v>
+      </c>
+      <c r="G53">
+        <v>-0.0940124138998884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.009574809832561844</v>
+        <v>0.03267914913710118</v>
       </c>
       <c r="C54">
-        <v>-0.03686220792908768</v>
+        <v>-0.01762580156261081</v>
       </c>
       <c r="D54">
-        <v>0.001425704702076122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001672118918411073</v>
+      </c>
+      <c r="E54">
+        <v>-0.01409118092763579</v>
+      </c>
+      <c r="F54">
+        <v>0.005909475967004711</v>
+      </c>
+      <c r="G54">
+        <v>-0.1072206855941556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.006984513540562594</v>
+        <v>0.07209396160790631</v>
       </c>
       <c r="C55">
-        <v>-0.01943581891116289</v>
+        <v>-0.06921333363122209</v>
       </c>
       <c r="D55">
-        <v>-0.108372576140411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005102211054905292</v>
+      </c>
+      <c r="E55">
+        <v>0.02288476899227051</v>
+      </c>
+      <c r="F55">
+        <v>0.06412049546609466</v>
+      </c>
+      <c r="G55">
+        <v>-0.06876779461319919</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.01569135587546553</v>
+        <v>0.1374785968325479</v>
       </c>
       <c r="C56">
-        <v>-0.05130408285982498</v>
+        <v>-0.1085353808824031</v>
       </c>
       <c r="D56">
-        <v>-0.1650232504872503</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0126727096768972</v>
+      </c>
+      <c r="E56">
+        <v>0.03296751150677702</v>
+      </c>
+      <c r="F56">
+        <v>0.08081026114077271</v>
+      </c>
+      <c r="G56">
+        <v>-0.04633156622028493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02421775110965611</v>
+        <v>0.005504498694829446</v>
       </c>
       <c r="C57">
-        <v>0.0016002482386443</v>
+        <v>-0.007488486671509541</v>
       </c>
       <c r="D57">
-        <v>-0.03714126622174741</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02341659975783597</v>
+      </c>
+      <c r="E57">
+        <v>-0.02479389901699233</v>
+      </c>
+      <c r="F57">
+        <v>-0.01108017810560947</v>
+      </c>
+      <c r="G57">
+        <v>-0.02811159242926421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01846989663814553</v>
+        <v>0.05114779035791434</v>
       </c>
       <c r="C58">
-        <v>-0.03919893460965831</v>
+        <v>-0.05581840708652685</v>
       </c>
       <c r="D58">
-        <v>-0.1696450001611691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02352603465537332</v>
+      </c>
+      <c r="E58">
+        <v>-0.9326882663756567</v>
+      </c>
+      <c r="F58">
+        <v>0.2310826089030616</v>
+      </c>
+      <c r="G58">
+        <v>0.1904867688565312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.09495864016044615</v>
+        <v>0.1602912721676347</v>
       </c>
       <c r="C59">
-        <v>-0.2572905926058501</v>
+        <v>0.2032868473090792</v>
       </c>
       <c r="D59">
-        <v>0.09736002466321318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01145770779081381</v>
+      </c>
+      <c r="E59">
+        <v>-0.01928193067207935</v>
+      </c>
+      <c r="F59">
+        <v>0.001808153171138935</v>
+      </c>
+      <c r="G59">
+        <v>-0.03926086554220527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.08063091516496526</v>
+        <v>0.2882871382175641</v>
       </c>
       <c r="C60">
-        <v>-0.1618204716684533</v>
+        <v>-0.1064946254628345</v>
       </c>
       <c r="D60">
-        <v>-0.1387403514784854</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01153116796213614</v>
+      </c>
+      <c r="E60">
+        <v>0.006626763441119635</v>
+      </c>
+      <c r="F60">
+        <v>-0.343367751705117</v>
+      </c>
+      <c r="G60">
+        <v>0.1608948161191021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002681864078987694</v>
+        <v>0.03852602386803676</v>
       </c>
       <c r="C61">
-        <v>0.003772396210191191</v>
+        <v>-0.06642598718529086</v>
       </c>
       <c r="D61">
-        <v>-0.07412722608540699</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.00521654988544652</v>
+      </c>
+      <c r="E61">
+        <v>-0.01551274666655568</v>
+      </c>
+      <c r="F61">
+        <v>-0.01484199562196861</v>
+      </c>
+      <c r="G61">
+        <v>-0.09206383223929324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008396027176678693</v>
+        <v>0.01557528924522216</v>
       </c>
       <c r="C63">
-        <v>-0.0004730073203572377</v>
+        <v>-0.03016145881505967</v>
       </c>
       <c r="D63">
-        <v>-0.02689294440468878</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008471442492649287</v>
+      </c>
+      <c r="E63">
+        <v>-0.002443482629339686</v>
+      </c>
+      <c r="F63">
+        <v>0.01928574504052109</v>
+      </c>
+      <c r="G63">
+        <v>-0.09459715103961966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0125883882551721</v>
+        <v>0.04816703607050358</v>
       </c>
       <c r="C64">
-        <v>-0.01775849227104971</v>
+        <v>-0.0472692573155782</v>
       </c>
       <c r="D64">
-        <v>-0.06326143110731584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006138271644221935</v>
+      </c>
+      <c r="E64">
+        <v>-0.0009582291026150444</v>
+      </c>
+      <c r="F64">
+        <v>-0.004992286188278388</v>
+      </c>
+      <c r="G64">
+        <v>-0.09532766343292121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0199819845081082</v>
+        <v>0.07463221071466095</v>
       </c>
       <c r="C65">
-        <v>-0.00180736213550871</v>
+        <v>-0.05958040139739557</v>
       </c>
       <c r="D65">
-        <v>-0.1056907444887101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01641172836008297</v>
+      </c>
+      <c r="E65">
+        <v>-0.03394217212069281</v>
+      </c>
+      <c r="F65">
+        <v>-0.02977820938558483</v>
+      </c>
+      <c r="G65">
+        <v>-0.03544136626478221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.001772633199684242</v>
+        <v>0.05138377039028354</v>
       </c>
       <c r="C66">
-        <v>0.03293920200310818</v>
+        <v>-0.1081981366952121</v>
       </c>
       <c r="D66">
-        <v>-0.1339566199121835</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01142863066041911</v>
+      </c>
+      <c r="E66">
+        <v>-0.03124671115884692</v>
+      </c>
+      <c r="F66">
+        <v>-0.03553693573170929</v>
+      </c>
+      <c r="G66">
+        <v>-0.1054914809573423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.01215837853568436</v>
+        <v>0.05501341517284577</v>
       </c>
       <c r="C67">
-        <v>-0.04345802167522149</v>
+        <v>-0.03468213345733576</v>
       </c>
       <c r="D67">
-        <v>-0.06777060003012358</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006098684368424946</v>
+      </c>
+      <c r="E67">
+        <v>0.004061497261065779</v>
+      </c>
+      <c r="F67">
+        <v>0.01916452796080571</v>
+      </c>
+      <c r="G67">
+        <v>-0.07630703937087073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1097831601984888</v>
+        <v>0.1548718317114943</v>
       </c>
       <c r="C68">
-        <v>-0.2447964491976703</v>
+        <v>0.2701632854503259</v>
       </c>
       <c r="D68">
-        <v>0.1489105649894567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.006181620536359934</v>
+      </c>
+      <c r="E68">
+        <v>-0.01610542478646947</v>
+      </c>
+      <c r="F68">
+        <v>0.0334548895236171</v>
+      </c>
+      <c r="G68">
+        <v>-0.02594409264071224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.007525381661873381</v>
+        <v>0.08257272559450234</v>
       </c>
       <c r="C69">
-        <v>-0.03471223854352875</v>
+        <v>-0.07048065360636557</v>
       </c>
       <c r="D69">
-        <v>-0.08079436272643135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008992756511116282</v>
+      </c>
+      <c r="E69">
+        <v>0.02163239504033366</v>
+      </c>
+      <c r="F69">
+        <v>0.03693221597071777</v>
+      </c>
+      <c r="G69">
+        <v>-0.1019247312042863</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.08562320314008801</v>
+        <v>0.1406879026257758</v>
       </c>
       <c r="C71">
-        <v>-0.2065563543727396</v>
+        <v>0.228418474417928</v>
       </c>
       <c r="D71">
-        <v>0.09586577543352695</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002480595967755047</v>
+      </c>
+      <c r="E71">
+        <v>-0.03580880539744982</v>
+      </c>
+      <c r="F71">
+        <v>0.01956006903702945</v>
+      </c>
+      <c r="G71">
+        <v>-0.06903632124450541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00277897676895161</v>
+        <v>0.08464970867472164</v>
       </c>
       <c r="C72">
-        <v>-0.0228041732011426</v>
+        <v>-0.07114323980052069</v>
       </c>
       <c r="D72">
-        <v>-0.1053905402777969</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008486550075141557</v>
+      </c>
+      <c r="E72">
+        <v>0.005972420123476375</v>
+      </c>
+      <c r="F72">
+        <v>-0.03974129351292751</v>
+      </c>
+      <c r="G72">
+        <v>-0.09056375515583501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.09224031286371782</v>
+        <v>0.3752740666068973</v>
       </c>
       <c r="C73">
-        <v>-0.1616360603044069</v>
+        <v>-0.1186481659081554</v>
       </c>
       <c r="D73">
-        <v>-0.2664714706807909</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02055957024799265</v>
+      </c>
+      <c r="E73">
+        <v>-0.06401894696594025</v>
+      </c>
+      <c r="F73">
+        <v>-0.58010893463292</v>
+      </c>
+      <c r="G73">
+        <v>0.282929942772337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.01468503734846958</v>
+        <v>0.1050055183450015</v>
       </c>
       <c r="C74">
-        <v>-0.05085268826704881</v>
+        <v>-0.1094176577438825</v>
       </c>
       <c r="D74">
-        <v>-0.1774502877750084</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009489671242685243</v>
+      </c>
+      <c r="E74">
+        <v>0.008084570201274496</v>
+      </c>
+      <c r="F74">
+        <v>0.06917006767541346</v>
+      </c>
+      <c r="G74">
+        <v>-0.08651478081044867</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.03829190434702873</v>
+        <v>0.2486994447385205</v>
       </c>
       <c r="C75">
-        <v>-0.1269264921038053</v>
+        <v>-0.152782096427378</v>
       </c>
       <c r="D75">
-        <v>-0.308953095705443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03079685018948947</v>
+      </c>
+      <c r="E75">
+        <v>0.05970844570131932</v>
+      </c>
+      <c r="F75">
+        <v>0.1749490793775403</v>
+      </c>
+      <c r="G75">
+        <v>0.009635319528203692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.01269072689200262</v>
+        <v>0.1191204826339844</v>
       </c>
       <c r="C76">
-        <v>-0.06308922194180816</v>
+        <v>-0.1088758865285747</v>
       </c>
       <c r="D76">
-        <v>-0.2196683923424317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01855549601218914</v>
+      </c>
+      <c r="E76">
+        <v>0.02967993463397541</v>
+      </c>
+      <c r="F76">
+        <v>0.1078257797410348</v>
+      </c>
+      <c r="G76">
+        <v>-0.05876414103978782</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01619576644175941</v>
+        <v>0.06790037049137387</v>
       </c>
       <c r="C77">
-        <v>-0.0101405902595179</v>
+        <v>-0.0597995290573371</v>
       </c>
       <c r="D77">
-        <v>-0.06905058798811299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01096014373891349</v>
+      </c>
+      <c r="E77">
+        <v>-0.04281102828764051</v>
+      </c>
+      <c r="F77">
+        <v>-0.01172530835665757</v>
+      </c>
+      <c r="G77">
+        <v>-0.06285311032558633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004625212507376564</v>
+        <v>0.04188325537673879</v>
       </c>
       <c r="C78">
-        <v>7.491088811867963e-06</v>
+        <v>-0.05160249075773228</v>
       </c>
       <c r="D78">
-        <v>-0.05778691120810447</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005502224123323654</v>
+      </c>
+      <c r="E78">
+        <v>-0.02353529368971585</v>
+      </c>
+      <c r="F78">
+        <v>-0.03693244743688724</v>
+      </c>
+      <c r="G78">
+        <v>-0.09647120327352698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02272770331604369</v>
+        <v>0.04320510362439779</v>
       </c>
       <c r="C80">
-        <v>-0.02561181073734748</v>
+        <v>-0.05083547940354094</v>
       </c>
       <c r="D80">
-        <v>-0.08641780410285758</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01302713156084875</v>
+      </c>
+      <c r="E80">
+        <v>-0.02170314182095919</v>
+      </c>
+      <c r="F80">
+        <v>-0.01639617514462373</v>
+      </c>
+      <c r="G80">
+        <v>-0.05464699752950598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.02268565354608657</v>
+        <v>0.1372816186932739</v>
       </c>
       <c r="C81">
-        <v>-0.07208239529867957</v>
+        <v>-0.09568842831137557</v>
       </c>
       <c r="D81">
-        <v>-0.178542134114095</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01511316415631923</v>
+      </c>
+      <c r="E81">
+        <v>0.0358459428042003</v>
+      </c>
+      <c r="F81">
+        <v>0.1282737300763215</v>
+      </c>
+      <c r="G81">
+        <v>-0.02369726063739711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1302489743807271</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07706884935221432</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00863395911890316</v>
+      </c>
+      <c r="E82">
+        <v>0.09208044664272214</v>
+      </c>
+      <c r="F82">
+        <v>0.0501357846691152</v>
+      </c>
+      <c r="G82">
+        <v>-0.06373693789012547</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01033895443576658</v>
+        <v>0.03632397545975104</v>
       </c>
       <c r="C83">
-        <v>-0.01516418062770409</v>
+        <v>-0.02990319593435782</v>
       </c>
       <c r="D83">
-        <v>-0.03484362335603919</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005966000384771512</v>
+      </c>
+      <c r="E83">
+        <v>-0.02949484866746096</v>
+      </c>
+      <c r="F83">
+        <v>-0.03147111098314329</v>
+      </c>
+      <c r="G83">
+        <v>-0.06126695058970106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.03495553029138561</v>
+        <v>0.2128755206055264</v>
       </c>
       <c r="C85">
-        <v>-0.08143039441722973</v>
+        <v>-0.1464343270648854</v>
       </c>
       <c r="D85">
-        <v>-0.2701663028104682</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01785673930490234</v>
+      </c>
+      <c r="E85">
+        <v>0.1003217983802692</v>
+      </c>
+      <c r="F85">
+        <v>0.1312747312081723</v>
+      </c>
+      <c r="G85">
+        <v>0.06885284876115631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00928130819841581</v>
+        <v>0.0129721742348375</v>
       </c>
       <c r="C86">
-        <v>-0.007595608808964648</v>
+        <v>-0.02841198851713374</v>
       </c>
       <c r="D86">
-        <v>-0.05831712135269482</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01202944182388064</v>
+      </c>
+      <c r="E86">
+        <v>-0.0482625741916442</v>
+      </c>
+      <c r="F86">
+        <v>-0.02898748212163189</v>
+      </c>
+      <c r="G86">
+        <v>-0.1929226754585078</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.005038577104223176</v>
+        <v>0.02163262207710393</v>
       </c>
       <c r="C87">
-        <v>0.01187808473128739</v>
+        <v>-0.02329070513464214</v>
       </c>
       <c r="D87">
-        <v>-0.05037110734626651</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01170704938612232</v>
+      </c>
+      <c r="E87">
+        <v>-0.08657230222641718</v>
+      </c>
+      <c r="F87">
+        <v>-0.01285502330824771</v>
+      </c>
+      <c r="G87">
+        <v>-0.1233036287176853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03239412358424124</v>
+        <v>0.09371481800907171</v>
       </c>
       <c r="C88">
-        <v>-0.01982019935878171</v>
+        <v>-0.06837442226518652</v>
       </c>
       <c r="D88">
-        <v>-0.05688100191915434</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02214789943871777</v>
+      </c>
+      <c r="E88">
+        <v>0.005858550991475263</v>
+      </c>
+      <c r="F88">
+        <v>0.02085288407182445</v>
+      </c>
+      <c r="G88">
+        <v>-0.09604837076073973</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1601034187713696</v>
+        <v>0.2328611092503705</v>
       </c>
       <c r="C89">
-        <v>-0.3802305996647411</v>
+        <v>0.3666769579925218</v>
       </c>
       <c r="D89">
-        <v>0.1738163281642612</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004390963021370146</v>
+      </c>
+      <c r="E89">
+        <v>0.01232782895554381</v>
+      </c>
+      <c r="F89">
+        <v>0.02420570232689087</v>
+      </c>
+      <c r="G89">
+        <v>-0.06853596785093702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1269077437944737</v>
+        <v>0.2081595971074677</v>
       </c>
       <c r="C90">
-        <v>-0.3078908016753966</v>
+        <v>0.3190071383563055</v>
       </c>
       <c r="D90">
-        <v>0.1636089258089623</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004413189664965488</v>
+      </c>
+      <c r="E90">
+        <v>0.003596632454740506</v>
+      </c>
+      <c r="F90">
+        <v>0.05333195442606394</v>
+      </c>
+      <c r="G90">
+        <v>-0.04351762322098917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.03020324438160008</v>
+        <v>0.1863268443017042</v>
       </c>
       <c r="C91">
-        <v>-0.1071259506623126</v>
+        <v>-0.1400084151743243</v>
       </c>
       <c r="D91">
-        <v>-0.2278948460990001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02227103073983581</v>
+      </c>
+      <c r="E91">
+        <v>0.06257602723627297</v>
+      </c>
+      <c r="F91">
+        <v>0.147042056595703</v>
+      </c>
+      <c r="G91">
+        <v>-0.03302826833427357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.09387443841580662</v>
+        <v>0.2000504244945604</v>
       </c>
       <c r="C92">
-        <v>-0.3091587659681077</v>
+        <v>0.2578016073916581</v>
       </c>
       <c r="D92">
-        <v>0.05681714478864978</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03774879710861775</v>
+      </c>
+      <c r="E92">
+        <v>-0.04328934847377661</v>
+      </c>
+      <c r="F92">
+        <v>0.06152463376764662</v>
+      </c>
+      <c r="G92">
+        <v>-0.1219063465956551</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1302519417119064</v>
+        <v>0.2330834291411582</v>
       </c>
       <c r="C93">
-        <v>-0.3305419716959205</v>
+        <v>0.3138653050538978</v>
       </c>
       <c r="D93">
-        <v>0.1270568532873796</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01128768211779563</v>
+      </c>
+      <c r="E93">
+        <v>-0.009214715411451732</v>
+      </c>
+      <c r="F93">
+        <v>0.04176852967083584</v>
+      </c>
+      <c r="G93">
+        <v>-0.05685194809066661</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.07018658617169828</v>
+        <v>0.3168448972561291</v>
       </c>
       <c r="C94">
-        <v>-0.1523607198102379</v>
+        <v>-0.1783725019527513</v>
       </c>
       <c r="D94">
-        <v>-0.282191420785777</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0169414728167716</v>
+      </c>
+      <c r="E94">
+        <v>0.1773306814985436</v>
+      </c>
+      <c r="F94">
+        <v>0.4801451627929038</v>
+      </c>
+      <c r="G94">
+        <v>0.4394200530379436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.001998366742636082</v>
+        <v>0.1011853905909814</v>
       </c>
       <c r="C95">
-        <v>-0.01867577102193395</v>
+        <v>-0.08952784521708976</v>
       </c>
       <c r="D95">
-        <v>-0.1290497256495726</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01128901331417458</v>
+      </c>
+      <c r="E95">
+        <v>-0.0621374870670404</v>
+      </c>
+      <c r="F95">
+        <v>-0.2016604966936956</v>
+      </c>
+      <c r="G95">
+        <v>0.03097351713060681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.04392860747358315</v>
+        <v>0.1971732751364429</v>
       </c>
       <c r="C98">
-        <v>-0.139978152714381</v>
+        <v>-0.0460067027855721</v>
       </c>
       <c r="D98">
-        <v>-0.1583812921953483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0134060248496456</v>
+      </c>
+      <c r="E98">
+        <v>-0.06897645796814798</v>
+      </c>
+      <c r="F98">
+        <v>-0.2403589350314956</v>
+      </c>
+      <c r="G98">
+        <v>0.008492399316604568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01092476909548941</v>
+        <v>0.009153927530365641</v>
       </c>
       <c r="C101">
-        <v>-0.01084895288345712</v>
+        <v>-0.02244676934295373</v>
       </c>
       <c r="D101">
-        <v>-0.0179861787073188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.008805023964181846</v>
+      </c>
+      <c r="E101">
+        <v>-0.00176498774547243</v>
+      </c>
+      <c r="F101">
+        <v>0.01768416006191295</v>
+      </c>
+      <c r="G101">
+        <v>-0.09530611714741756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02540687396215978</v>
+        <v>0.1163623038155811</v>
       </c>
       <c r="C102">
-        <v>-0.04168988721277708</v>
+        <v>-0.08356992025950788</v>
       </c>
       <c r="D102">
-        <v>-0.1314651626038861</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0007308121501239612</v>
+      </c>
+      <c r="E102">
+        <v>0.03562522817524107</v>
+      </c>
+      <c r="F102">
+        <v>0.04187196814543325</v>
+      </c>
+      <c r="G102">
+        <v>-0.01700757484373671</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9207537809030896</v>
+        <v>0.02104940595631151</v>
       </c>
       <c r="C104">
-        <v>0.3650625471595835</v>
+        <v>0.02936027913817099</v>
       </c>
       <c r="D104">
-        <v>0.03716407643488694</v>
+        <v>0.987858807540433</v>
+      </c>
+      <c r="E104">
+        <v>0.04658676322399178</v>
+      </c>
+      <c r="F104">
+        <v>0.03532854941229067</v>
+      </c>
+      <c r="G104">
+        <v>0.03737422018067827</v>
       </c>
     </row>
   </sheetData>
